--- a/data/trans_orig/P14_n_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.192149956378801</v>
+        <v>1.184223234250389</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9017653725377462</v>
+        <v>0.9114174828901829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9569023617522577</v>
+        <v>0.9739644918751349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.75151223752944</v>
+        <v>1.752293834960744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.721150616815018</v>
+        <v>1.750145562977717</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.843454585215372</v>
+        <v>1.842532673263213</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.84991723610289</v>
+        <v>1.846592806248691</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.843906989115456</v>
+        <v>2.841000209611968</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.552950797424365</v>
+        <v>1.563757635350912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.429470665317069</v>
+        <v>1.416068534997202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.47092022417196</v>
+        <v>1.47014796215212</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.427371050014913</v>
+        <v>2.415401863564647</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.495652873315469</v>
+        <v>1.508632421375616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.132212393787427</v>
+        <v>1.1271638996503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.163408118973711</v>
+        <v>1.172564846166732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.250755311993736</v>
+        <v>2.247952770923247</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.00247088416613</v>
+        <v>2.015603394780588</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.146642305507004</v>
+        <v>2.156581324035317</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.163994008839358</v>
+        <v>2.169246193595656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.342487410323816</v>
+        <v>3.31391032781918</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.763077379902884</v>
+        <v>1.774790862621019</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.623072209921399</v>
+        <v>1.61493149987219</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.66475090891309</v>
+        <v>1.663591644321772</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.772295859863948</v>
+        <v>2.779972327091719</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7684712374863398</v>
+        <v>0.7701196807077403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8678969870071328</v>
+        <v>0.8726700443177922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.846202969716513</v>
+        <v>0.8492576969915226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.292845196161037</v>
+        <v>1.290991091940621</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.205299631359711</v>
+        <v>1.206574197323421</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.519649558363359</v>
+        <v>1.532416166065554</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.392362002600145</v>
+        <v>1.393972800568327</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.101485352459528</v>
+        <v>2.086508173863707</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.007502463301873</v>
+        <v>1.016230953943795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.240099413898352</v>
+        <v>1.244195446660093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.172540205647043</v>
+        <v>1.157800999198166</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.754223826960803</v>
+        <v>1.756609401608937</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9318609355886467</v>
+        <v>0.9378656951166178</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.074408513718723</v>
+        <v>1.075598345178883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.061072850567145</v>
+        <v>1.055558245789304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.557319946239573</v>
+        <v>1.570975201491777</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.407446071948282</v>
+        <v>1.409971638412231</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.787956011396629</v>
+        <v>1.786126658599495</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.680756310857868</v>
+        <v>1.688971342619977</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.383116137283602</v>
+        <v>2.386775455137577</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.141623227384299</v>
+        <v>1.141690950640555</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.41155058934165</v>
+        <v>1.412019566342662</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.349211839948908</v>
+        <v>1.347108188236742</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.960916942417499</v>
+        <v>1.956324880914605</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5898537231241529</v>
+        <v>0.5918821061778606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.922135005146512</v>
+        <v>0.9258676134776554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7886948955689755</v>
+        <v>0.7853536819208038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.169510549943716</v>
+        <v>1.162654318187618</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9514814640886742</v>
+        <v>0.956883031178976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.361437995321118</v>
+        <v>1.359280524611973</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.252973928901381</v>
+        <v>1.257525441541326</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.78074068380219</v>
+        <v>1.782777429766337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7831142885534066</v>
+        <v>0.7839229142949714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.168128457247801</v>
+        <v>1.171020261698789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.038901667731299</v>
+        <v>1.038432746764764</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.501691700685736</v>
+        <v>1.496279341600609</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7417173210518505</v>
+        <v>0.7475326306040739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.121763308773364</v>
+        <v>1.126226546458182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9828733243863309</v>
+        <v>0.9886753223756691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.377120021944086</v>
+        <v>1.387051290475959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.138556795661105</v>
+        <v>1.151277270932392</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.611066898233733</v>
+        <v>1.620757475054495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.532253460914856</v>
+        <v>1.539927302301822</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.022821984284338</v>
+        <v>2.035415528112595</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9086272228038182</v>
+        <v>0.9083962303859027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.341227324932617</v>
+        <v>1.343817334337151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.209777308123547</v>
+        <v>1.212439450304787</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.666764689623673</v>
+        <v>1.664644952914379</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.8541019752399182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.40028737200504</v>
+        <v>1.400287372005041</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>1.194778005275192</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5916811204030892</v>
+        <v>0.6004285600545551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7430036041954396</v>
+        <v>0.7367771736169846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7327255848754158</v>
+        <v>0.727884575199339</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.285049536789108</v>
+        <v>1.281560343239566</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.019430632479132</v>
+        <v>1.021021231613247</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.204462728398775</v>
+        <v>1.214932690930846</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.084510911782733</v>
+        <v>1.077241837476322</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.849510045721967</v>
+        <v>1.853379915599991</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8202377320660391</v>
+        <v>0.8173391310384257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9997949520732554</v>
+        <v>0.9976488981787008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9334313566292199</v>
+        <v>0.9502119820775653</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.598554147850153</v>
+        <v>1.59314107420168</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8443850578388955</v>
+        <v>0.8378558470930317</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.048152994701838</v>
+        <v>1.043455415954965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.03584798482962</v>
+        <v>1.034315690899897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.519715034288488</v>
+        <v>1.525025161946221</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.407749831144088</v>
+        <v>1.423219286311909</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.650278835408312</v>
+        <v>1.67051802521929</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.487253829096335</v>
+        <v>1.446371168014526</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.099870693762629</v>
+        <v>2.096565734933337</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.037374075609433</v>
+        <v>1.03990475376733</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.252217558537604</v>
+        <v>1.256595232373821</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.18237058011007</v>
+        <v>1.190080123288788</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.770339756640027</v>
+        <v>1.758816901678479</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>1.300309448878673</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>1.844671183219077</v>
+        <v>1.844671183219078</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8099391245060751</v>
+        <v>0.8048806495223789</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9262656867705544</v>
+        <v>0.9225957703246633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9042271627999136</v>
+        <v>0.9027771405309063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.392069180043888</v>
+        <v>1.384220477385983</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.305032355608533</v>
+        <v>1.305518738049518</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.6097739240133</v>
+        <v>1.610000965256734</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.554260568554656</v>
+        <v>1.557157947148691</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.141144485193516</v>
+        <v>2.133789265965138</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.074854068837256</v>
+        <v>1.072045203655711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.293654191087121</v>
+        <v>1.293768213685559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.247765363905891</v>
+        <v>1.245043859853505</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.789727596275704</v>
+        <v>1.792329814288782</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9101748533919979</v>
+        <v>0.9122168446411589</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.042175924031051</v>
+        <v>1.032732067222833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.008053008726911</v>
+        <v>1.009795784312985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.523502268427224</v>
+        <v>1.52131308621554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.434049462327631</v>
+        <v>1.431767740492034</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.757385284339755</v>
+        <v>1.764269610188974</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.712807529868502</v>
+        <v>1.716461146830492</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.296695266684494</v>
+        <v>2.283139817159978</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.156413449326316</v>
+        <v>1.156032224994131</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.393812835011592</v>
+        <v>1.389272634149063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.350337566912191</v>
+        <v>1.353186684775212</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.895331080999957</v>
+        <v>1.898093895550462</v>
       </c>
     </row>
     <row r="19">
